--- a/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171120-1124.xlsx
+++ b/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171120-1124.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,13 +75,6 @@
     <t>李阳</t>
     <rPh sb="0" eb="1">
       <t>li'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <rPh sb="0" eb="1">
-      <t>dai'ding</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,176 +223,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张庆岩、闫学飞、李秉润、陈力杰</t>
-    <rPh sb="0" eb="1">
-      <t>zhang'qing'yang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qing'yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yan'xue'fei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>li'bing'run</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chen'li'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.页面设计</t>
     <rPh sb="2" eb="3">
       <t>ye'mian</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>she'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Hub层数据转换，本周完成了Hub层数据的抽取转换，现在系统中存在三张数据量较大的表，数据总量约在2亿条，从lake层抽取到hub层的时间非常长，正在查找原因，需要逐步判断是硬件本身问题还是软件问题。</t>
-    <rPh sb="5" eb="6">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhuan'huan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ben'zhou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wan'cheng'le</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>chou'qu</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>zhuan'huan</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>xian'zai</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>cun'zai</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>san'zhang</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>shu'ju'liang</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>jiao'da</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>de</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>zong'liang</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>tiao</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>chou'qu</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>de</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>fei'chang</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>chang</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>zheng'zai</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>cha'zhao</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>yuan'yin</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>zhu'bu</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ying'jian</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ben'shen</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ruan'jian</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>wen'ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,59 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Finereport页面数据支持开发，目前已经在开发业务统计的报表，
-2.手机端适配问题</t>
-    <rPh sb="12" eb="13">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zh'chi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>tong'ji</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>de</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bao'biao</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>shou'ji</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>duan</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>shi'pei</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.数据建模还在开发中
 2.手机端适配样式还需调整，目前该优先级为中，放在12月份进行处理。</t>
     <rPh sb="2" eb="3">
@@ -750,6 +526,271 @@
     </rPh>
     <rPh sb="49" eb="50">
       <t>li'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Finereport页面数据支持开发，目前已经在开发业务统计的报表，</t>
+    <rPh sb="12" eb="13">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zh'chi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171120-1126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆岩、闫学飞、李秉润、陈力杰、左青贝</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'qing'yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qing'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'xue'fei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>li'bing'run</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chen'li'jie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zuo'qing'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Hub层数据转换，本周完成了Hub层数据的抽取转换，现在系统中存在三张数据量较大的表，数据总量约在2亿条，从lake层抽取到hub层的时间非常长，正在查找原因，需要逐步判断是硬件本身问题还是软件问题。
+2.后期考虑采用分期抽取的数据
+3.insight数据模型构建</t>
+    <rPh sb="5" eb="6">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wan'cheng'le</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chou'qu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhuan'huan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xian'zai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>cun'zai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>san'zhang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shu'ju'liang</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jiao'da</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>de</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zong'liang</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>chou'qu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>de</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>fei'chang</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>zheng'zai</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>cha'zhao</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>yuan'yin</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zhu'bu</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ying'jian</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ben'shen</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>hou'qi</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>cai'yong</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>fen'qi</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>chou'qu</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>de</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>gou'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定脚本定期清除日志文件</t>
+    <rPh sb="0" eb="1">
+      <t>she'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,48 +1244,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1261,16 +1302,16 @@
         <v>0.3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,25 +1319,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>0.7</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1319,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
